--- a/Others/Specification.xlsx
+++ b/Others/Specification.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Explore-Cortex-M3-LPC1768-Stick-DVB-14001\Others\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12030"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19080" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="LPC1768_Stick" localSheetId="0">Sheet1!$A$1:$H$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -322,9 +327,6 @@
     <t>Line Total</t>
   </si>
   <si>
-    <t>vat</t>
-  </si>
-  <si>
     <t>Markup</t>
   </si>
   <si>
@@ -350,13 +352,85 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT </t>
+  </si>
+  <si>
+    <t>Selling PRICE :  1499</t>
+  </si>
+  <si>
+    <t>ARM Development kit</t>
+  </si>
+  <si>
+    <t>LED 16</t>
+  </si>
+  <si>
+    <t>LCD (16X2)</t>
+  </si>
+  <si>
+    <t>4 Switches</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>2 Pot</t>
+  </si>
+  <si>
+    <t>LM35</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>7 segment</t>
+  </si>
+  <si>
+    <t>DC motor</t>
+  </si>
+  <si>
+    <t>I2C Breakout Board</t>
+  </si>
+  <si>
+    <t>LCD Breakour board</t>
+  </si>
+  <si>
+    <t>Relay Breakout board</t>
+  </si>
+  <si>
+    <t>USB to serial Sheild</t>
+  </si>
+  <si>
+    <t>SD card Breakout Board</t>
+  </si>
+  <si>
+    <t>Bread board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Cable </t>
+  </si>
+  <si>
+    <t>LPC Board</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Single PIN Wire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +458,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,16 +477,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,9 +578,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,6 +613,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,14 +789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
@@ -715,7 +806,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -775,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -795,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -815,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -835,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -855,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -875,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,7 +1006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -935,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -955,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -975,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -995,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1015,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1035,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1055,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1075,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1095,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1115,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1135,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1155,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1175,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1195,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1215,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1235,7 +1326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1255,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1275,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1295,7 +1386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1315,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1335,7 +1426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1355,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1375,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1392,16 +1483,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <f>SUM(F2:F34)</f>
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>89</v>
       </c>
@@ -1409,7 +1500,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>90</v>
       </c>
@@ -1417,7 +1508,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>91</v>
       </c>
@@ -1425,79 +1516,84 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>92</v>
       </c>
       <c r="D44">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>93</v>
       </c>
       <c r="D45">
         <f>SUM(D42:D44)</f>
-        <v>612</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>94</v>
       </c>
       <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
+        <f>SUM(D45:D45)*D46</f>
+        <v>1580</v>
+      </c>
+      <c r="E47" s="2">
+        <f>D47+D48</f>
+        <v>1666.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48">
+        <f>D47*0.055</f>
+        <v>86.9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="D48">
-        <f>SUM(D45:D46)*D47</f>
-        <v>1851</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>98</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1506,24 +1602,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E4:E23)</f>
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>2499</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
